--- a/Laboratory_Activities/Laboratory_2.xlsx
+++ b/Laboratory_Activities/Laboratory_2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ECE_425_MEXE_and_ME\Laboratory_Activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F2FEB6-8416-4E0B-A538-A92A7AC056C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A146F109-CC29-4162-9090-5B14F3C7C2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{436EDD96-9EA9-4216-9029-18E06F9F9C1B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{436EDD96-9EA9-4216-9029-18E06F9F9C1B}"/>
   </bookViews>
   <sheets>
     <sheet name="L&amp;IL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'L&amp;IL'!$A$1:$Q$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'L&amp;IL'!$A$1:$Q$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>COLLEGE OF ENGINEERING</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Submission Date: April 29, 2024 to May 3, 2024</t>
   </si>
   <si>
-    <t>d. GitHub repository containing the laboratory activity. Post the step responses from MATLAB code and Simulink in README</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -243,13 +240,13 @@
     </r>
   </si>
   <si>
-    <t>a. Transfer function and step response .m file.</t>
+    <t>d. GitHub repository containing the laboratory activity. Post the block diagram and step responses from MATLAB code and Simulink in README</t>
   </si>
   <si>
-    <t>b. Transfer function and step response in MATLAB .m file.</t>
+    <t>a. Transfer function and step response in MATLAB .m file.(4)</t>
   </si>
   <si>
-    <t>c. Block diagram and step response in MATLAB .slx file.</t>
+    <t>b. Block diagram and step response in MATLAB .slx file.(8)</t>
   </si>
 </sst>
 </file>
@@ -364,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -375,9 +372,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -387,6 +381,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -408,12 +408,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,13 +541,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>350837</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>131762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>397194</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>38012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -577,8 +571,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962025" y="13855700"/>
-          <a:ext cx="3102294" cy="3240000"/>
+          <a:off x="960437" y="13866812"/>
+          <a:ext cx="3094357" cy="3195550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -605,13 +599,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>363538</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>223837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>420688</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -664,13 +658,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>122236</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>125413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>222248</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>28488</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -722,13 +716,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -781,13 +775,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>20638</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -840,13 +834,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>149226</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>206376</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -899,13 +893,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>160338</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>217488</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -958,13 +952,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>349251</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>87311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>407988</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1016,13 +1010,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>390527</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>112712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>127198</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>26987</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1075,13 +1069,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>406401</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>30162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>196976</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>188912</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1134,13 +1128,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>122238</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>85723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>39686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1192,13 +1186,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>144465</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>107949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>22224</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1251,13 +1245,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>122240</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>69849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>436563</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>228599</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1633,78 +1627,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B91D4F-23B8-465E-866A-BBD8D191C386}">
-  <dimension ref="A12:R74"/>
+  <dimension ref="A12:R73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:O32"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
@@ -1726,25 +1720,25 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
@@ -1765,45 +1759,45 @@
     </row>
     <row r="18" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
@@ -1824,24 +1818,24 @@
     </row>
     <row r="21" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
-      <c r="B21" s="11" t="s">
-        <v>22</v>
+      <c r="B21" s="12" t="s">
+        <v>21</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="22" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
@@ -1864,7 +1858,7 @@
     </row>
     <row r="23" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="4"/>
@@ -1885,8 +1879,8 @@
     </row>
     <row r="24" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="4"/>
@@ -1906,293 +1900,291 @@
     </row>
     <row r="25" spans="1:17" ht="119" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
     </row>
     <row r="26" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="1:17" ht="125.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="1:17" ht="125.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
     </row>
     <row r="30" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
     </row>
     <row r="33" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
     </row>
     <row r="34" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
     </row>
     <row r="35" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-    </row>
-    <row r="36" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
     </row>
     <row r="37" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-    </row>
-    <row r="38" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
-      <c r="C38" s="12" t="s">
-        <v>25</v>
+      <c r="C38" s="13" t="s">
+        <v>22</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-    </row>
-    <row r="39" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
-      <c r="C39" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -2204,32 +2196,30 @@
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
+      <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
-      <c r="B41" s="19" t="s">
-        <v>18</v>
-      </c>
+      <c r="B41" s="7"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2263,7 +2253,7 @@
     </row>
     <row r="43" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
-      <c r="B43" s="9"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2280,7 +2270,7 @@
     </row>
     <row r="44" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
-      <c r="B44" s="8"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2297,7 +2287,7 @@
     </row>
     <row r="45" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
-      <c r="B45" s="8"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -2314,7 +2304,7 @@
     </row>
     <row r="46" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
-      <c r="B46" s="8"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -2331,7 +2321,7 @@
     </row>
     <row r="47" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
-      <c r="B47" s="8"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -2348,7 +2338,7 @@
     </row>
     <row r="48" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
-      <c r="B48" s="8"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -2365,7 +2355,7 @@
     </row>
     <row r="49" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
-      <c r="B49" s="8"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2382,7 +2372,7 @@
     </row>
     <row r="50" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
-      <c r="B50" s="8"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -2399,7 +2389,7 @@
     </row>
     <row r="51" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
-      <c r="B51" s="8"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2416,7 +2406,7 @@
     </row>
     <row r="52" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
-      <c r="B52" s="8"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -2433,7 +2423,7 @@
     </row>
     <row r="53" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
-      <c r="B53" s="8"/>
+      <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -2756,67 +2746,49 @@
     </row>
     <row r="72" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="7" t="s">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B73" s="6" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="C36:Q36"/>
-    <mergeCell ref="C37:Q37"/>
-    <mergeCell ref="C38:Q38"/>
-    <mergeCell ref="C39:Q39"/>
+  <mergeCells count="19">
+    <mergeCell ref="B39:N39"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="C29:Q29"/>
     <mergeCell ref="B19:Q19"/>
     <mergeCell ref="A12:Q12"/>
     <mergeCell ref="A13:Q13"/>
     <mergeCell ref="A14:Q14"/>
     <mergeCell ref="A16:Q16"/>
     <mergeCell ref="B18:Q18"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="B40:N40"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="C36:Q36"/>
+    <mergeCell ref="C37:Q37"/>
+    <mergeCell ref="C38:Q38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="36" orientation="portrait" r:id="rId1"/>
